--- a/Symphony/2021/June/All Details/03.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/03.06.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="236">
   <si>
     <t>Date</t>
   </si>
@@ -761,13 +761,13 @@
     <t>Papon Telecom</t>
   </si>
   <si>
-    <t>N=Rose Mobile=7000 Old</t>
+    <t>Date: 02.06.2021</t>
   </si>
   <si>
     <t>03.06.2021</t>
   </si>
   <si>
-    <t>Hafiz Mobile</t>
+    <t>Hafiz</t>
   </si>
   <si>
     <t>Teleview</t>
@@ -776,16 +776,7 @@
     <t xml:space="preserve">Tutul </t>
   </si>
   <si>
-    <t>23.06.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serkul </t>
-  </si>
-  <si>
-    <t>Date: 03.06.2021</t>
-  </si>
-  <si>
-    <t>Jafor bKash(-)</t>
+    <t>Serkul</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1101,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,7 +2088,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3045,6 +3042,9 @@
     <xf numFmtId="1" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="39" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3855,33 +3855,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="337"/>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
+      <c r="A1" s="338"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="338"/>
-      <c r="B2" s="335" t="s">
+      <c r="A2" s="339"/>
+      <c r="B2" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="336" t="s">
+      <c r="A3" s="339"/>
+      <c r="B3" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="338"/>
+      <c r="A4" s="339"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3929,7 +3929,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="38" t="s">
         <v>85</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="38" t="s">
         <v>86</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="38" t="s">
         <v>90</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="38" t="s">
         <v>91</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="38" t="s">
         <v>93</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="38" t="s">
         <v>94</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="38" t="s">
         <v>95</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -4113,7 +4113,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -4126,7 +4126,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -4139,7 +4139,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4152,7 +4152,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4165,7 +4165,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4178,7 +4178,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4191,7 +4191,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4204,7 +4204,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4217,7 +4217,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4230,7 +4230,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4243,7 +4243,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="338"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4256,7 +4256,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4269,7 +4269,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4282,7 +4282,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4295,7 +4295,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4308,7 +4308,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4321,7 +4321,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4334,7 +4334,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4347,7 +4347,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4360,7 +4360,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4373,7 +4373,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4386,7 +4386,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4399,7 +4399,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="338"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4412,7 +4412,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4425,7 +4425,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4438,7 +4438,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4451,7 +4451,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4464,7 +4464,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4477,7 +4477,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4490,7 +4490,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4503,7 +4503,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4516,7 +4516,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4529,7 +4529,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4542,7 +4542,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4555,7 +4555,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="338"/>
+      <c r="A51" s="339"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4568,7 +4568,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4581,7 +4581,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4594,7 +4594,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4607,7 +4607,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4619,7 +4619,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4631,7 +4631,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4643,7 +4643,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4655,7 +4655,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4667,7 +4667,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4679,7 +4679,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4691,7 +4691,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4703,7 +4703,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="338"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4715,7 +4715,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4727,7 +4727,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4739,7 +4739,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4751,7 +4751,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4763,7 +4763,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4775,7 +4775,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4787,7 +4787,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4799,7 +4799,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4811,7 +4811,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4823,7 +4823,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4835,7 +4835,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="338"/>
+      <c r="A74" s="339"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4847,7 +4847,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="338"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4859,7 +4859,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="338"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4871,7 +4871,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="338"/>
+      <c r="A77" s="339"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4883,7 +4883,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="338"/>
+      <c r="A78" s="339"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4895,7 +4895,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="338"/>
+      <c r="A79" s="339"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4907,7 +4907,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="338"/>
+      <c r="A80" s="339"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4919,7 +4919,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="338"/>
+      <c r="A81" s="339"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4931,7 +4931,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="338"/>
+      <c r="A82" s="339"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4943,7 +4943,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="338"/>
+      <c r="A83" s="339"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -4983,7 +4983,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5000,33 +5000,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="337"/>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
+      <c r="A1" s="338"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="338"/>
-      <c r="B2" s="335" t="s">
+      <c r="A2" s="339"/>
+      <c r="B2" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="336" t="s">
+      <c r="A3" s="339"/>
+      <c r="B3" s="337" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="338"/>
+      <c r="A4" s="339"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -5044,7 +5044,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5074,7 +5074,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="38" t="s">
         <v>217</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="38" t="s">
         <v>225</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="38" t="s">
         <v>231</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="38"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -5144,7 +5144,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="38"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -5157,7 +5157,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="38"/>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -5170,7 +5170,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="38"/>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -5183,7 +5183,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -5196,7 +5196,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -5209,7 +5209,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -5222,7 +5222,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -5235,7 +5235,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -5248,7 +5248,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -5261,7 +5261,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -5274,7 +5274,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -5287,7 +5287,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -5300,7 +5300,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -5313,7 +5313,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -5326,7 +5326,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -5339,7 +5339,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -5352,7 +5352,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="338"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -5365,7 +5365,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -5378,7 +5378,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -5391,7 +5391,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -5404,7 +5404,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -5417,7 +5417,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -5430,7 +5430,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -5443,7 +5443,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5456,7 +5456,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5469,7 +5469,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5482,7 +5482,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5495,7 +5495,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5508,7 +5508,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="338"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5521,7 +5521,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5534,7 +5534,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5547,7 +5547,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5560,7 +5560,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5573,7 +5573,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5586,7 +5586,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5599,7 +5599,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5612,7 +5612,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5625,7 +5625,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5638,7 +5638,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5651,7 +5651,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5664,7 +5664,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="338"/>
+      <c r="A51" s="339"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5677,7 +5677,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5690,7 +5690,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5703,7 +5703,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5716,7 +5716,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -5728,7 +5728,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5740,7 +5740,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5752,7 +5752,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -5764,7 +5764,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -5776,7 +5776,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -5788,7 +5788,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -5800,7 +5800,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -5812,7 +5812,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="338"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -5824,7 +5824,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -5836,7 +5836,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -5848,7 +5848,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5860,7 +5860,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5872,7 +5872,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -5884,7 +5884,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -5896,7 +5896,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -5908,7 +5908,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -5920,7 +5920,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -5932,7 +5932,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -5944,7 +5944,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="338"/>
+      <c r="A74" s="339"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -5956,7 +5956,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="338"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -5968,7 +5968,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="338"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -5980,7 +5980,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="338"/>
+      <c r="A77" s="339"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -5992,7 +5992,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="338"/>
+      <c r="A78" s="339"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -6004,7 +6004,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="338"/>
+      <c r="A79" s="339"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -6016,7 +6016,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="338"/>
+      <c r="A80" s="339"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -6028,7 +6028,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="338"/>
+      <c r="A81" s="339"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -6040,7 +6040,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="338"/>
+      <c r="A82" s="339"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -6052,7 +6052,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="338"/>
+      <c r="A83" s="339"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -6090,10 +6090,10 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="18" topLeftCell="K34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="18" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6104,67 +6104,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="344" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="344" t="s">
+      <c r="A2" s="345" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="344"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="345"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="346" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="347"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
+      <c r="K3" s="347"/>
+      <c r="L3" s="347"/>
+      <c r="M3" s="347"/>
+      <c r="N3" s="347"/>
+      <c r="O3" s="347"/>
+      <c r="P3" s="347"/>
+      <c r="Q3" s="348"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6173,52 +6173,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="348" t="s">
+      <c r="A4" s="349" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="350" t="s">
+      <c r="B4" s="351" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="340" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="339" t="s">
+      <c r="D4" s="340" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="340" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="339" t="s">
+      <c r="F4" s="340" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="339" t="s">
+      <c r="G4" s="340" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="339" t="s">
+      <c r="H4" s="340" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="339" t="s">
+      <c r="I4" s="340" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="339" t="s">
+      <c r="J4" s="340" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="339" t="s">
+      <c r="K4" s="340" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="339" t="s">
+      <c r="L4" s="340" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="339" t="s">
+      <c r="M4" s="340" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="339" t="s">
+      <c r="N4" s="340" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="341" t="s">
+      <c r="O4" s="342" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="352" t="s">
+      <c r="P4" s="353" t="s">
         <v>111</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6231,22 +6231,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="349"/>
-      <c r="B5" s="351"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="342"/>
-      <c r="P5" s="353"/>
+      <c r="A5" s="350"/>
+      <c r="B5" s="352"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="341"/>
+      <c r="G5" s="341"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="341"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="341"/>
+      <c r="O5" s="343"/>
+      <c r="P5" s="354"/>
       <c r="Q5" s="194" t="s">
         <v>68</v>
       </c>
@@ -9175,6 +9175,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9190,10 +9194,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9207,8 +9207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9234,14 +9234,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="359" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="360"/>
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="361"/>
       <c r="G1" s="114"/>
       <c r="H1" s="114"/>
       <c r="I1" s="216"/>
@@ -9335,14 +9335,14 @@
       <c r="CS1" s="211"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="362" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="363"/>
+      <c r="B2" s="363"/>
+      <c r="C2" s="363"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="363"/>
+      <c r="F2" s="364"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="216"/>
@@ -9436,14 +9436,14 @@
       <c r="CS2" s="211"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="365" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="365"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
-      <c r="F3" s="366"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="367"/>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="216"/>
@@ -9765,14 +9765,14 @@
         <v>434125</v>
       </c>
       <c r="C6" s="94">
-        <v>413537</v>
+        <v>445487</v>
       </c>
       <c r="D6" s="94">
         <v>1640</v>
       </c>
       <c r="E6" s="94">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>415177</v>
+        <v>447127</v>
       </c>
       <c r="F6" s="251"/>
       <c r="G6" s="224"/>
@@ -9868,13 +9868,21 @@
       <c r="CS6" s="211"/>
     </row>
     <row r="7" spans="1:97">
-      <c r="A7" s="258"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="258" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="94">
+        <v>492065</v>
+      </c>
+      <c r="C7" s="94">
+        <v>457705</v>
+      </c>
+      <c r="D7" s="94">
+        <v>1910</v>
+      </c>
       <c r="E7" s="94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>459615</v>
       </c>
       <c r="F7" s="251"/>
       <c r="G7" s="224"/>
@@ -12525,23 +12533,23 @@
       </c>
       <c r="B33" s="277">
         <f>SUM(B5:B32)</f>
-        <v>871490</v>
+        <v>1363555</v>
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>857957</v>
+        <v>1347612</v>
       </c>
       <c r="D33" s="277">
         <f>SUM(D5:D32)</f>
-        <v>4595</v>
+        <v>6505</v>
       </c>
       <c r="E33" s="277">
         <f>SUM(E5:E32)</f>
-        <v>862552</v>
+        <v>1354117</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>8938</v>
+        <v>9438</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -12736,12 +12744,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="206"/>
-      <c r="B35" s="356" t="s">
+      <c r="B35" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="356"/>
-      <c r="D35" s="356"/>
-      <c r="E35" s="356"/>
+      <c r="C35" s="357"/>
+      <c r="D35" s="357"/>
+      <c r="E35" s="357"/>
       <c r="F35" s="207"/>
       <c r="G35" s="212"/>
       <c r="H35" s="212"/>
@@ -13060,18 +13068,10 @@
       <c r="A38" s="268" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="110" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="301">
-        <v>1000</v>
-      </c>
-      <c r="E38" s="251" t="s">
-        <v>231</v>
-      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="251"/>
       <c r="F38" s="205"/>
       <c r="G38" s="212"/>
       <c r="H38" s="212"/>
@@ -13169,10 +13169,18 @@
       <c r="A39" s="268" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="251"/>
+      <c r="B39" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="301">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="251" t="s">
+        <v>231</v>
+      </c>
       <c r="F39" s="205"/>
       <c r="G39" s="212"/>
       <c r="H39" s="212"/>
@@ -13580,10 +13588,10 @@
       <c r="D43" s="301"/>
       <c r="E43" s="252"/>
       <c r="F43" s="207"/>
-      <c r="G43" s="357"/>
-      <c r="H43" s="357"/>
-      <c r="I43" s="357"/>
-      <c r="J43" s="357"/>
+      <c r="G43" s="358"/>
+      <c r="H43" s="358"/>
+      <c r="I43" s="358"/>
+      <c r="J43" s="358"/>
       <c r="K43" s="114"/>
       <c r="L43" s="216"/>
       <c r="M43" s="114"/>
@@ -13899,13 +13907,13 @@
         <v>200</v>
       </c>
       <c r="B46" s="266" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="C46" s="196">
         <v>1718911905</v>
       </c>
       <c r="D46" s="304">
-        <v>393865</v>
+        <v>394365</v>
       </c>
       <c r="E46" s="267" t="s">
         <v>231</v>
@@ -15344,7 +15352,7 @@
     </row>
     <row r="58" spans="1:97">
       <c r="A58" s="323" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="103" t="s">
         <v>207</v>
@@ -15685,11 +15693,19 @@
       <c r="CS60" s="211"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="323"/>
-      <c r="B61" s="106"/>
+      <c r="A61" s="323" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="106" t="s">
+        <v>233</v>
+      </c>
       <c r="C61" s="99"/>
-      <c r="D61" s="305"/>
-      <c r="E61" s="254"/>
+      <c r="D61" s="305">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="254" t="s">
+        <v>231</v>
+      </c>
       <c r="F61" s="207"/>
       <c r="G61" s="211"/>
       <c r="H61" s="279" t="s">
@@ -16771,19 +16787,11 @@
       <c r="CS69" s="211"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="323" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="103" t="s">
-        <v>233</v>
-      </c>
+      <c r="A70" s="323"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="173"/>
-      <c r="D70" s="305">
-        <v>10000</v>
-      </c>
-      <c r="E70" s="253" t="s">
-        <v>231</v>
-      </c>
+      <c r="D70" s="305"/>
+      <c r="E70" s="253"/>
       <c r="F70" s="205"/>
       <c r="G70" s="211"/>
       <c r="H70" s="250" t="s">
@@ -16891,11 +16899,21 @@
       <c r="CS70" s="211"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="323"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="305"/>
-      <c r="E71" s="253"/>
+      <c r="A71" s="323" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="173" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="305">
+        <v>10650</v>
+      </c>
+      <c r="E71" s="253" t="s">
+        <v>216</v>
+      </c>
       <c r="F71" s="207"/>
       <c r="G71" s="211"/>
       <c r="H71" s="282" t="s">
@@ -17003,11 +17021,21 @@
       <c r="CS71" s="211"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="323"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="305"/>
-      <c r="E72" s="255"/>
+      <c r="A72" s="323" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="305">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="255" t="s">
+        <v>202</v>
+      </c>
       <c r="F72" s="207"/>
       <c r="G72" s="211"/>
       <c r="H72" s="250" t="s">
@@ -17115,21 +17143,11 @@
       <c r="CS72" s="211"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="323" t="s">
-        <v>189</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="173" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="305">
-        <v>10650</v>
-      </c>
-      <c r="E73" s="255" t="s">
-        <v>216</v>
-      </c>
+      <c r="A73" s="323"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="173"/>
+      <c r="D73" s="305"/>
+      <c r="E73" s="255"/>
       <c r="F73" s="207"/>
       <c r="G73" s="211"/>
       <c r="H73" s="279" t="s">
@@ -17237,21 +17255,11 @@
       <c r="CS73" s="211"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="323" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="C74" s="173" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="305">
-        <v>10000</v>
-      </c>
-      <c r="E74" s="254" t="s">
-        <v>202</v>
-      </c>
+      <c r="A74" s="323"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="305"/>
+      <c r="E74" s="254"/>
       <c r="F74" s="207"/>
       <c r="G74" s="211"/>
       <c r="H74" s="250" t="s">
@@ -17359,11 +17367,19 @@
       <c r="CS74" s="211"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="323"/>
-      <c r="B75" s="103"/>
+      <c r="A75" s="323" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>222</v>
+      </c>
       <c r="C75" s="173"/>
-      <c r="D75" s="305"/>
-      <c r="E75" s="254"/>
+      <c r="D75" s="305">
+        <v>5000</v>
+      </c>
+      <c r="E75" s="254" t="s">
+        <v>217</v>
+      </c>
       <c r="F75" s="205"/>
       <c r="G75" s="211"/>
       <c r="H75" s="279" t="s">
@@ -17475,14 +17491,16 @@
         <v>186</v>
       </c>
       <c r="B76" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="173"/>
+        <v>169</v>
+      </c>
+      <c r="C76" s="173" t="s">
+        <v>142</v>
+      </c>
       <c r="D76" s="305">
-        <v>940</v>
+        <v>5160</v>
       </c>
       <c r="E76" s="253" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F76" s="205"/>
       <c r="G76" s="211"/>
@@ -17592,17 +17610,17 @@
     </row>
     <row r="77" spans="1:97">
       <c r="A77" s="323" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B77" s="103" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="305">
-        <v>5000</v>
+        <v>16735</v>
       </c>
       <c r="E77" s="254" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F77" s="205"/>
       <c r="G77" s="211"/>
@@ -17715,16 +17733,14 @@
         <v>186</v>
       </c>
       <c r="B78" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="173" t="s">
-        <v>142</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C78" s="173"/>
       <c r="D78" s="305">
-        <v>5160</v>
+        <v>940</v>
       </c>
       <c r="E78" s="254" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F78" s="205"/>
       <c r="G78" s="211"/>
@@ -17833,19 +17849,11 @@
       <c r="CS78" s="211"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="323" t="s">
-        <v>227</v>
-      </c>
-      <c r="B79" s="103" t="s">
-        <v>228</v>
-      </c>
+      <c r="A79" s="323"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="173"/>
-      <c r="D79" s="305">
-        <v>16735</v>
-      </c>
-      <c r="E79" s="254" t="s">
-        <v>225</v>
-      </c>
+      <c r="D79" s="305"/>
+      <c r="E79" s="254"/>
       <c r="F79" s="205"/>
       <c r="G79" s="211"/>
       <c r="H79" s="279" t="s">
@@ -18192,7 +18200,7 @@
         <v>48888</v>
       </c>
       <c r="E82" s="253" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F82" s="207"/>
       <c r="G82" s="211"/>
@@ -19164,7 +19172,7 @@
       <c r="C90" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="D90" s="305">
+      <c r="D90" s="335">
         <v>22030</v>
       </c>
       <c r="E90" s="255" t="s">
@@ -22253,14 +22261,14 @@
       <c r="CS118" s="211"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="354" t="s">
+      <c r="A119" s="355" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="355"/>
-      <c r="C119" s="367"/>
+      <c r="B119" s="356"/>
+      <c r="C119" s="368"/>
       <c r="D119" s="309">
         <f>SUM(D37:D118)</f>
-        <v>2231859</v>
+        <v>2232359</v>
       </c>
       <c r="E119" s="299"/>
       <c r="F119" s="211"/>
@@ -22461,14 +22469,14 @@
       <c r="CS120" s="211"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="354" t="s">
+      <c r="A121" s="355" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="355"/>
-      <c r="C121" s="355"/>
+      <c r="B121" s="356"/>
+      <c r="C121" s="356"/>
       <c r="D121" s="309">
         <f>D119+M121</f>
-        <v>2231859</v>
+        <v>2232359</v>
       </c>
       <c r="E121" s="299"/>
       <c r="F121" s="211"/>
@@ -32484,8 +32492,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32502,35 +32510,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="369" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="370"/>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="371"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="378" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="380"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="371" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="373"/>
+      <c r="A3" s="372" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="374"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -32599,14 +32607,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>4843590.43</v>
+        <v>5162997.5599999996</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="53">
         <v>140000</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -32635,7 +32643,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="67">
-        <v>34746.430000000015</v>
+        <v>22189.560000000009</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="65" t="s">
@@ -32677,7 +32685,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="166">
-        <v>3505</v>
+        <v>445487</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -32709,7 +32717,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="67">
-        <v>6505</v>
+        <v>4595</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="187"/>
@@ -32751,7 +32759,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>2231859</v>
+        <v>2199909</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
@@ -32784,7 +32792,7 @@
       </c>
       <c r="B10" s="71">
         <f>B6-B8-B9</f>
-        <v>28241.430000000015</v>
+        <v>17594.560000000009</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66" t="s">
@@ -32825,7 +32833,7 @@
         <v>110</v>
       </c>
       <c r="E11" s="69">
-        <v>400716</v>
+        <v>160630</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>77</v>
@@ -32857,12 +32865,8 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="174" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="71">
-        <v>500000</v>
-      </c>
+      <c r="A12" s="174"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="66"/>
       <c r="D12" s="189"/>
       <c r="E12" s="188"/>
@@ -32931,8 +32935,8 @@
         <v>5</v>
       </c>
       <c r="B14" s="70">
-        <f>B5+B6-B8-B9-B12</f>
-        <v>7528241.4299999997</v>
+        <f>B5+B6-B8-B9+B12</f>
+        <v>8017594.5599999996</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
@@ -32940,7 +32944,7 @@
       </c>
       <c r="E14" s="69">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>7528241.4299999997</v>
+        <v>8017594.5599999996</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="167">
@@ -33008,13 +33012,13 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="374" t="s">
+      <c r="A16" s="375" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="375"/>
-      <c r="C16" s="375"/>
-      <c r="D16" s="375"/>
-      <c r="E16" s="376"/>
+      <c r="B16" s="376"/>
+      <c r="C16" s="376"/>
+      <c r="D16" s="376"/>
+      <c r="E16" s="377"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
@@ -33086,7 +33090,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="86">
-        <v>48888</v>
+        <v>50888</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="72" t="s">
@@ -33124,7 +33128,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="85">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="73" t="s">
@@ -33162,7 +33166,7 @@
         <v>214</v>
       </c>
       <c r="B20" s="86">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="73" t="s">
@@ -38863,29 +38867,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="381" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
     </row>
     <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="382" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
+      <c r="B2" s="382"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="382"/>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
+      <c r="A3" s="383"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1">
       <c r="A4" s="331" t="s">
